--- a/Output/ExtractedData.xlsx
+++ b/Output/ExtractedData.xlsx
@@ -14,243 +14,165 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="79">
-  <x:si>
-    <x:t>Motto By Hilton New York City Times Square</x:t>
-  </x:si>
-  <x:si>
-    <x:t>PKR 1,496,439</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Pod Times Square</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Renaissance New York Harlem Hotel</x:t>
-  </x:si>
-  <x:si>
-    <x:t>PKR 1,104,133</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Little Charlie Hotel</x:t>
-  </x:si>
-  <x:si>
-    <x:t>The FIDI Hotel</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Pod 51</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Fairfield Inn by Marriott New York Manhattan/Financial District</x:t>
-  </x:si>
-  <x:si>
-    <x:t>PKR 1,172,515</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Hyatt Place New York City/Times Square</x:t>
-  </x:si>
-  <x:si>
-    <x:t>PKR 1,568,358</x:t>
-  </x:si>
-  <x:si>
-    <x:t>La Quinta by Wyndham Time Square South</x:t>
-  </x:si>
-  <x:si>
-    <x:t>U Hotel Fifth Avenue, Empire State Building</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Hilton Garden Inn New York/Midtown Park Avenue</x:t>
-  </x:si>
-  <x:si>
-    <x:t>PKR 1,603,124</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Candlewood Suites NYC -Times Square, an IHG Hotel</x:t>
-  </x:si>
-  <x:si>
-    <x:t>PKR 1,538,300</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Hyatt Grand Central New York</x:t>
-  </x:si>
-  <x:si>
-    <x:t>PKR 1,493,215</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Romer Hell's Kitchen</x:t>
-  </x:si>
-  <x:si>
-    <x:t>The Manhattan at Times Square</x:t>
-  </x:si>
-  <x:si>
-    <x:t>New York Marriott Downtown</x:t>
-  </x:si>
-  <x:si>
-    <x:t>PKR 2,059,123</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Radio Hotel</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Fantastic 2BD At Financial District</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Hampton Inn Manhattan Grand Central</x:t>
-  </x:si>
-  <x:si>
-    <x:t>PKR 1,457,244</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Residence Inn by Marriott New York Manhattan/Times Square</x:t>
-  </x:si>
-  <x:si>
-    <x:t>PKR 1,979,540</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Courtyard by Marriott New York Manhattan/Central Park</x:t>
-  </x:si>
-  <x:si>
-    <x:t>PKR 1,822,439</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Hyatt House New York/Chelsea</x:t>
-  </x:si>
-  <x:si>
-    <x:t>PKR 1,681,878</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Delta Hotels by Marriott New York Times Square</x:t>
-  </x:si>
-  <x:si>
-    <x:t>PKR 1,701,297</x:t>
-  </x:si>
-  <x:si>
-    <x:t>New York Marriott Marquis</x:t>
-  </x:si>
-  <x:si>
-    <x:t>PKR 1,787,953</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Aloft Manhattan Downtown - Financial District</x:t>
-  </x:si>
-  <x:si>
-    <x:t>PKR 1,270,349</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mondrian Park Avenue</x:t>
-  </x:si>
-  <x:si>
-    <x:t>PKR 1,870,483</x:t>
-  </x:si>
-  <x:si>
-    <x:t>citizenM New York Bowery</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Holiday Inn Express New York City Chelsea, an IHG Hotel</x:t>
-  </x:si>
-  <x:si>
-    <x:t>PKR 1,423,560</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Hyatt Centric Wall Street New York</x:t>
-  </x:si>
-  <x:si>
-    <x:t>PKR 1,609,335</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Hotel Shocard Broadway, Times Square</x:t>
-  </x:si>
-  <x:si>
-    <x:t>InterContinental New York Barclay Hotel, an IHG Hotel</x:t>
-  </x:si>
-  <x:si>
-    <x:t>PKR 2,017,793</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Renaissance New York Times Square Hotel</x:t>
-  </x:si>
-  <x:si>
-    <x:t>PKR 2,339,135</x:t>
-  </x:si>
-  <x:si>
-    <x:t>New York Hilton Midtown</x:t>
-  </x:si>
-  <x:si>
-    <x:t>PKR 1,904,957</x:t>
-  </x:si>
-  <x:si>
-    <x:t>InterContinental New York Times Square, an IHG Hotel</x:t>
-  </x:si>
-  <x:si>
-    <x:t>PKR 1,766,141</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Hotel AKA NoMad</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Hotel Boutique at Grand Central</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Grayson Hotel</x:t>
-  </x:si>
-  <x:si>
-    <x:t>PKR 1,760,364</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Hotel Edison Times Square</x:t>
-  </x:si>
-  <x:si>
-    <x:t>City Club Hotel</x:t>
-  </x:si>
-  <x:si>
-    <x:t>The Renwick</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Hyatt Herald Square New York</x:t>
-  </x:si>
-  <x:si>
-    <x:t>PKR 1,879,331</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AKA Central Park</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Henn na Hotel New York</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Courtyard New York Downtown Manhattan/Financial District</x:t>
-  </x:si>
-  <x:si>
-    <x:t>PKR 1,502,046</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Virgin Hotels New York City</x:t>
-  </x:si>
-  <x:si>
-    <x:t>citizenM New York Times Square</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Courtyard New York Manhattan/Midtown East</x:t>
-  </x:si>
-  <x:si>
-    <x:t>PKR 1,843,955</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Gild Hall, a Thompson Hotel, part of Hyatt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>PKR 1,964,213</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Tempo By Hilton New York Times Square</x:t>
-  </x:si>
-  <x:si>
-    <x:t>PKR 2,217,124</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Fairfield Inn &amp; Suites by Marriott New York Manhattan/Fifth Avenue</x:t>
-  </x:si>
-  <x:si>
-    <x:t>PKR 1,391,514</x:t>
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
+  <x:si>
+    <x:t>Ando Living - Taksim Gumussuyu Townhouse</x:t>
+  </x:si>
+  <x:si>
+    <x:t>The Red Tent Suite 23</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CEMRE SUIT</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Olympos Garden Hotel</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Istanbul Geneva Hotel</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Meros Hotel</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Port İstanbul Residences</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Viv City Hotel</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Emad apartment</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Viva Hotel Yenikapı - Istanbul</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Movenpick Living Istanbul</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PKR 453,726</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Gazioğlu Suite Hotel İstanbul</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sirius Otel İstanbul</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ABAM HOTEL</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Stay Lab Taksim</x:t>
+  </x:si>
+  <x:si>
+    <x:t>A Wonderful House in Heart of Taksim 1+1/(FLR3)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Good Night Hotel Istanbul</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Charming Flat w Pool Gym in Bagcilar</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Grand Abimo Hotel</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Gumusyan Hotel</x:t>
+  </x:si>
+  <x:si>
+    <x:t>The Serenity Hotel</x:t>
+  </x:si>
+  <x:si>
+    <x:t>GRAND OPERA HOTEL</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hotel Davos Istanbul</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Pandora Hotel</x:t>
+  </x:si>
+  <x:si>
+    <x:t>kale otel</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ak residence</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Butterfly House</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Crowned Plus Hotel</x:t>
+  </x:si>
+  <x:si>
+    <x:t>The Sisli Corner Park Inn</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hub Suite Istanbul</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Safir Gold Hotel</x:t>
+  </x:si>
+  <x:si>
+    <x:t>VPLUS HOTEL</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ria Suites Boutique Hotel</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Meridiani Taksim Hotel</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Marcian's Column Hotel - Orange and Blue</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Arcade Suit</x:t>
+  </x:si>
+  <x:si>
+    <x:t>NUPERA HOTEL</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Renzo Hotel Istanbul</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DAYLİNE HOTEL</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PKR 195,216PKR 177,646</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Avlonya Hotel</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Express İnci Hotel</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PKR 324,811PKR 177,347</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Taksim Story Residence</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Eymen Palace Hotel</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Istanbul Taksim MARİDA RESIDENCE</x:t>
+  </x:si>
+  <x:si>
+    <x:t>216 Center Suite</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Septimum Hotel</x:t>
+  </x:si>
+  <x:si>
+    <x:t>İstanbul Ozyurt Hotel Kumkapi</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Lions Suit Hotel</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mezzo Hotel</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hermanos Hotel</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -611,337 +533,259 @@
       <x:c r="A1" s="0" t="s">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="B1" s="0" t="s">
-        <x:v>1</x:v>
-      </x:c>
     </x:row>
     <x:row r="2" spans="1:2">
       <x:c r="A2" s="0" t="s">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:2">
       <x:c r="A3" s="0" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="B3" s="0" t="s">
-        <x:v>4</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:2">
       <x:c r="A4" s="0" t="s">
-        <x:v>5</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:2">
       <x:c r="A5" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:2">
       <x:c r="A6" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:2">
       <x:c r="A7" s="0" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="B7" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:2">
       <x:c r="A8" s="0" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="B8" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:2">
       <x:c r="A9" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>8</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:2">
       <x:c r="A10" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:2">
       <x:c r="A11" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="B11" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:2">
       <x:c r="A12" s="0" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="B12" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>12</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:2">
       <x:c r="A13" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="B13" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:2">
       <x:c r="A14" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>14</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:2">
       <x:c r="A15" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>15</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:2">
       <x:c r="A16" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="B16" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>16</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:2">
       <x:c r="A17" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>17</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:2">
       <x:c r="A18" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>18</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:2">
       <x:c r="A19" s="0" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="B19" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>19</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:2">
       <x:c r="A20" s="0" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="B20" s="0" t="s">
-        <x:v>29</x:v>
+        <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:2">
       <x:c r="A21" s="0" t="s">
-        <x:v>30</x:v>
-      </x:c>
-      <x:c r="B21" s="0" t="s">
-        <x:v>31</x:v>
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:2">
       <x:c r="A22" s="0" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="B22" s="0" t="s">
-        <x:v>33</x:v>
+        <x:v>22</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:2">
       <x:c r="A23" s="0" t="s">
-        <x:v>34</x:v>
-      </x:c>
-      <x:c r="B23" s="0" t="s">
-        <x:v>35</x:v>
+        <x:v>23</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:2">
       <x:c r="A24" s="0" t="s">
-        <x:v>36</x:v>
-      </x:c>
-      <x:c r="B24" s="0" t="s">
-        <x:v>37</x:v>
+        <x:v>24</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:2">
       <x:c r="A25" s="0" t="s">
-        <x:v>38</x:v>
-      </x:c>
-      <x:c r="B25" s="0" t="s">
-        <x:v>39</x:v>
+        <x:v>25</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:2">
       <x:c r="A26" s="0" t="s">
-        <x:v>40</x:v>
-      </x:c>
-      <x:c r="B26" s="0" t="s">
-        <x:v>41</x:v>
+        <x:v>26</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:2">
       <x:c r="A27" s="0" t="s">
-        <x:v>42</x:v>
+        <x:v>27</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:2">
       <x:c r="A28" s="0" t="s">
-        <x:v>43</x:v>
-      </x:c>
-      <x:c r="B28" s="0" t="s">
-        <x:v>44</x:v>
+        <x:v>28</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="1:2">
       <x:c r="A29" s="0" t="s">
-        <x:v>45</x:v>
-      </x:c>
-      <x:c r="B29" s="0" t="s">
-        <x:v>46</x:v>
+        <x:v>29</x:v>
       </x:c>
     </x:row>
     <x:row r="30" spans="1:2">
       <x:c r="A30" s="0" t="s">
-        <x:v>47</x:v>
+        <x:v>30</x:v>
       </x:c>
     </x:row>
     <x:row r="31" spans="1:2">
       <x:c r="A31" s="0" t="s">
-        <x:v>48</x:v>
-      </x:c>
-      <x:c r="B31" s="0" t="s">
-        <x:v>49</x:v>
+        <x:v>31</x:v>
       </x:c>
     </x:row>
     <x:row r="32" spans="1:2">
       <x:c r="A32" s="0" t="s">
-        <x:v>50</x:v>
-      </x:c>
-      <x:c r="B32" s="0" t="s">
-        <x:v>51</x:v>
+        <x:v>32</x:v>
       </x:c>
     </x:row>
     <x:row r="33" spans="1:2">
       <x:c r="A33" s="0" t="s">
-        <x:v>52</x:v>
-      </x:c>
-      <x:c r="B33" s="0" t="s">
-        <x:v>53</x:v>
+        <x:v>33</x:v>
       </x:c>
     </x:row>
     <x:row r="34" spans="1:2">
       <x:c r="A34" s="0" t="s">
-        <x:v>54</x:v>
-      </x:c>
-      <x:c r="B34" s="0" t="s">
-        <x:v>55</x:v>
+        <x:v>34</x:v>
       </x:c>
     </x:row>
     <x:row r="35" spans="1:2">
       <x:c r="A35" s="0" t="s">
-        <x:v>56</x:v>
+        <x:v>35</x:v>
       </x:c>
     </x:row>
     <x:row r="36" spans="1:2">
       <x:c r="A36" s="0" t="s">
-        <x:v>57</x:v>
+        <x:v>36</x:v>
       </x:c>
     </x:row>
     <x:row r="37" spans="1:2">
       <x:c r="A37" s="0" t="s">
-        <x:v>58</x:v>
-      </x:c>
-      <x:c r="B37" s="0" t="s">
-        <x:v>59</x:v>
+        <x:v>37</x:v>
       </x:c>
     </x:row>
     <x:row r="38" spans="1:2">
       <x:c r="A38" s="0" t="s">
-        <x:v>60</x:v>
+        <x:v>38</x:v>
       </x:c>
     </x:row>
     <x:row r="39" spans="1:2">
       <x:c r="A39" s="0" t="s">
-        <x:v>61</x:v>
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="B39" s="0" t="s">
+        <x:v>40</x:v>
       </x:c>
     </x:row>
     <x:row r="40" spans="1:2">
       <x:c r="A40" s="0" t="s">
-        <x:v>62</x:v>
+        <x:v>41</x:v>
       </x:c>
     </x:row>
     <x:row r="41" spans="1:2">
       <x:c r="A41" s="0" t="s">
-        <x:v>63</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="B41" s="0" t="s">
-        <x:v>64</x:v>
+        <x:v>43</x:v>
       </x:c>
     </x:row>
     <x:row r="42" spans="1:2">
       <x:c r="A42" s="0" t="s">
-        <x:v>65</x:v>
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="43" spans="1:2">
       <x:c r="A43" s="0" t="s">
-        <x:v>66</x:v>
+        <x:v>45</x:v>
       </x:c>
     </x:row>
     <x:row r="44" spans="1:2">
       <x:c r="A44" s="0" t="s">
-        <x:v>67</x:v>
-      </x:c>
-      <x:c r="B44" s="0" t="s">
-        <x:v>68</x:v>
+        <x:v>46</x:v>
       </x:c>
     </x:row>
     <x:row r="45" spans="1:2">
       <x:c r="A45" s="0" t="s">
-        <x:v>69</x:v>
+        <x:v>47</x:v>
       </x:c>
     </x:row>
     <x:row r="46" spans="1:2">
       <x:c r="A46" s="0" t="s">
-        <x:v>70</x:v>
+        <x:v>48</x:v>
       </x:c>
     </x:row>
     <x:row r="47" spans="1:2">
       <x:c r="A47" s="0" t="s">
-        <x:v>71</x:v>
-      </x:c>
-      <x:c r="B47" s="0" t="s">
-        <x:v>72</x:v>
+        <x:v>49</x:v>
       </x:c>
     </x:row>
     <x:row r="48" spans="1:2">
       <x:c r="A48" s="0" t="s">
-        <x:v>73</x:v>
-      </x:c>
-      <x:c r="B48" s="0" t="s">
-        <x:v>74</x:v>
+        <x:v>50</x:v>
       </x:c>
     </x:row>
     <x:row r="49" spans="1:2">
       <x:c r="A49" s="0" t="s">
-        <x:v>75</x:v>
-      </x:c>
-      <x:c r="B49" s="0" t="s">
-        <x:v>76</x:v>
+        <x:v>51</x:v>
       </x:c>
     </x:row>
     <x:row r="50" spans="1:2">
       <x:c r="A50" s="0" t="s">
-        <x:v>77</x:v>
-      </x:c>
-      <x:c r="B50" s="0" t="s">
-        <x:v>78</x:v>
+        <x:v>52</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
